--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H2">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I2">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J2">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N2">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O2">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P2">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q2">
-        <v>70.3527054641409</v>
+        <v>51.240197131221</v>
       </c>
       <c r="R2">
-        <v>633.174349177268</v>
+        <v>461.161774180989</v>
       </c>
       <c r="S2">
-        <v>0.1633613559457221</v>
+        <v>0.199449972828043</v>
       </c>
       <c r="T2">
-        <v>0.1633613559457221</v>
+        <v>0.1994499728280431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H3">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I3">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J3">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.734496</v>
       </c>
       <c r="O3">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P3">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q3">
-        <v>29.64217654731378</v>
+        <v>23.253140954784</v>
       </c>
       <c r="R3">
-        <v>266.779588925824</v>
+        <v>209.278268593056</v>
       </c>
       <c r="S3">
-        <v>0.06883013413634603</v>
+        <v>0.09051171914349362</v>
       </c>
       <c r="T3">
-        <v>0.06883013413634603</v>
+        <v>0.09051171914349365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H4">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I4">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J4">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N4">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O4">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P4">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q4">
-        <v>5.381250723787557</v>
+        <v>5.453518153017</v>
       </c>
       <c r="R4">
-        <v>48.43125651408801</v>
+        <v>49.081663377153</v>
       </c>
       <c r="S4">
-        <v>0.01249544575609689</v>
+        <v>0.0212275539192595</v>
       </c>
       <c r="T4">
-        <v>0.01249544575609689</v>
+        <v>0.02122755391925951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H5">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I5">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J5">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N5">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O5">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P5">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q5">
-        <v>10.16020346615289</v>
+        <v>11.420531119413</v>
       </c>
       <c r="R5">
-        <v>91.44183119537601</v>
+        <v>102.784780074717</v>
       </c>
       <c r="S5">
-        <v>0.02359233527644735</v>
+        <v>0.04445386140134204</v>
       </c>
       <c r="T5">
-        <v>0.02359233527644735</v>
+        <v>0.04445386140134205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H6">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I6">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J6">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N6">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O6">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P6">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q6">
-        <v>7.92397499196889</v>
+        <v>11.39623428015</v>
       </c>
       <c r="R6">
-        <v>71.31577492772001</v>
+        <v>102.56610852135</v>
       </c>
       <c r="S6">
-        <v>0.0183997373040306</v>
+        <v>0.04435928713734375</v>
       </c>
       <c r="T6">
-        <v>0.0183997373040306</v>
+        <v>0.04435928713734377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N7">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O7">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P7">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q7">
-        <v>54.13517347585599</v>
+        <v>50.26179411915201</v>
       </c>
       <c r="R7">
-        <v>487.2165612827039</v>
+        <v>452.3561470723681</v>
       </c>
       <c r="S7">
-        <v>0.1257036994530416</v>
+        <v>0.1956415867347519</v>
       </c>
       <c r="T7">
-        <v>0.1257036994530416</v>
+        <v>0.195641586734752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.734496</v>
       </c>
       <c r="O8">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P8">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q8">
         <v>22.809135185408</v>
@@ -948,10 +948,10 @@
         <v>205.282216668672</v>
       </c>
       <c r="S8">
-        <v>0.05296358153186812</v>
+        <v>0.088783448301546</v>
       </c>
       <c r="T8">
-        <v>0.05296358153186811</v>
+        <v>0.08878344830154603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N9">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O9">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P9">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q9">
-        <v>4.140778091296</v>
+        <v>5.349386262704</v>
       </c>
       <c r="R9">
-        <v>37.267002821664</v>
+        <v>48.144476364336</v>
       </c>
       <c r="S9">
-        <v>0.009615026447124194</v>
+        <v>0.02082222560562572</v>
       </c>
       <c r="T9">
-        <v>0.009615026447124194</v>
+        <v>0.02082222560562573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N10">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O10">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P10">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q10">
-        <v>7.818098444992001</v>
+        <v>11.202462441456</v>
       </c>
       <c r="R10">
-        <v>70.362886004928</v>
+        <v>100.822161973104</v>
       </c>
       <c r="S10">
-        <v>0.01815388838943822</v>
+        <v>0.04360503968854129</v>
       </c>
       <c r="T10">
-        <v>0.01815388838943822</v>
+        <v>0.04360503968854131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N11">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O11">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P11">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q11">
-        <v>6.09735983824</v>
+        <v>11.1786295368</v>
       </c>
       <c r="R11">
-        <v>54.87623854416</v>
+        <v>100.6076658312</v>
       </c>
       <c r="S11">
-        <v>0.01415827528298223</v>
+        <v>0.04351227126741521</v>
       </c>
       <c r="T11">
-        <v>0.01415827528298223</v>
+        <v>0.04351227126741523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H12">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I12">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J12">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N12">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O12">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P12">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q12">
-        <v>75.00392484984721</v>
+        <v>4.379638139462445</v>
       </c>
       <c r="R12">
-        <v>675.035323648625</v>
+        <v>39.416743255162</v>
       </c>
       <c r="S12">
-        <v>0.1741616443019005</v>
+        <v>0.01704752824575307</v>
       </c>
       <c r="T12">
-        <v>0.1741616443019005</v>
+        <v>0.01704752824575308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H13">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I13">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J13">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.734496</v>
       </c>
       <c r="O13">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P13">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q13">
-        <v>31.60190596044444</v>
+        <v>1.987508805383111</v>
       </c>
       <c r="R13">
-        <v>284.417153644</v>
+        <v>17.887579248448</v>
       </c>
       <c r="S13">
-        <v>0.0733806919592988</v>
+        <v>0.007736281267888083</v>
       </c>
       <c r="T13">
-        <v>0.0733806919592988</v>
+        <v>0.007736281267888085</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H14">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I14">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J14">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N14">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O14">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P14">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q14">
-        <v>5.737020662138889</v>
+        <v>0.4661269361637778</v>
       </c>
       <c r="R14">
-        <v>51.63318595925</v>
+        <v>4.195142425474001</v>
       </c>
       <c r="S14">
-        <v>0.0133215555574239</v>
+        <v>0.001814376406753474</v>
       </c>
       <c r="T14">
-        <v>0.0133215555574239</v>
+        <v>0.001814376406753474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H15">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I15">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J15">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N15">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O15">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P15">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q15">
-        <v>10.83192369372222</v>
+        <v>0.9761436618873334</v>
       </c>
       <c r="R15">
-        <v>97.4873132435</v>
+        <v>8.785292956986</v>
       </c>
       <c r="S15">
-        <v>0.02515209231020956</v>
+        <v>0.003799591682699987</v>
       </c>
       <c r="T15">
-        <v>0.02515209231020956</v>
+        <v>0.003799591682699988</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H16">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I16">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J16">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N16">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O16">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P16">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q16">
-        <v>8.447851733472222</v>
+        <v>0.9740669453666668</v>
       </c>
       <c r="R16">
-        <v>76.03066560125001</v>
+        <v>8.766602508300002</v>
       </c>
       <c r="S16">
-        <v>0.01961619677457692</v>
+        <v>0.00379150816474322</v>
       </c>
       <c r="T16">
-        <v>0.01961619677457693</v>
+        <v>0.003791508164743221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H17">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N17">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O17">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P17">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q17">
-        <v>20.52881802416289</v>
+        <v>15.73362540257589</v>
       </c>
       <c r="R17">
-        <v>184.759362217466</v>
+        <v>141.602628623183</v>
       </c>
       <c r="S17">
-        <v>0.04766860814044433</v>
+        <v>0.06124237092597602</v>
       </c>
       <c r="T17">
-        <v>0.04766860814044433</v>
+        <v>0.06124237092597604</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H18">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.734496</v>
       </c>
       <c r="O18">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P18">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q18">
-        <v>8.649544380209779</v>
+        <v>7.140023452270223</v>
       </c>
       <c r="R18">
-        <v>77.84589942188801</v>
+        <v>64.26021107043201</v>
       </c>
       <c r="S18">
-        <v>0.02008453390586356</v>
+        <v>0.02779219369316567</v>
       </c>
       <c r="T18">
-        <v>0.02008453390586355</v>
+        <v>0.02779219369316567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H19">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N19">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O19">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P19">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q19">
-        <v>1.570241202839556</v>
+        <v>1.674537112454556</v>
       </c>
       <c r="R19">
-        <v>14.132170825556</v>
+        <v>15.070834012091</v>
       </c>
       <c r="S19">
-        <v>0.003646153056451528</v>
+        <v>0.006518054189434618</v>
       </c>
       <c r="T19">
-        <v>0.003646153056451528</v>
+        <v>0.00651805418943462</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H20">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N20">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O20">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P20">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q20">
-        <v>2.96473272305689</v>
+        <v>3.506746042977667</v>
       </c>
       <c r="R20">
-        <v>26.682594507512</v>
+        <v>31.560714386799</v>
       </c>
       <c r="S20">
-        <v>0.006884209419665999</v>
+        <v>0.01364983825482946</v>
       </c>
       <c r="T20">
-        <v>0.006884209419665999</v>
+        <v>0.01364983825482946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H21">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N21">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O21">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P21">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q21">
-        <v>2.312204478348889</v>
+        <v>3.499285545383334</v>
       </c>
       <c r="R21">
-        <v>20.80984030514</v>
+        <v>31.49356990845001</v>
       </c>
       <c r="S21">
-        <v>0.005369016817688321</v>
+        <v>0.01362079863113982</v>
       </c>
       <c r="T21">
-        <v>0.005369016817688321</v>
+        <v>0.01362079863113983</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H22">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.745615666666666</v>
+        <v>3.477616333333334</v>
       </c>
       <c r="N22">
-        <v>11.236847</v>
+        <v>10.432849</v>
       </c>
       <c r="O22">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823802</v>
       </c>
       <c r="P22">
-        <v>0.5698406620242048</v>
+        <v>0.4986219472823803</v>
       </c>
       <c r="Q22">
-        <v>25.38522723024344</v>
+        <v>6.484471221239667</v>
       </c>
       <c r="R22">
-        <v>228.467045072191</v>
+        <v>58.360240991157</v>
       </c>
       <c r="S22">
-        <v>0.05894535418309624</v>
+        <v>0.02524048854785621</v>
       </c>
       <c r="T22">
-        <v>0.05894535418309624</v>
+        <v>0.02524048854785622</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H23">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.734496</v>
       </c>
       <c r="O23">
-        <v>0.2400947823700857</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="P23">
-        <v>0.2400947823700856</v>
+        <v>0.2262779433422874</v>
       </c>
       <c r="Q23">
-        <v>10.69572779452089</v>
+        <v>2.942696003658667</v>
       </c>
       <c r="R23">
-        <v>96.261550150688</v>
+        <v>26.484264032928</v>
       </c>
       <c r="S23">
-        <v>0.02483584083670913</v>
+        <v>0.01145430093619404</v>
       </c>
       <c r="T23">
-        <v>0.02483584083670913</v>
+        <v>0.01145430093619404</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H24">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.2865006666666667</v>
+        <v>0.3701243333333333</v>
       </c>
       <c r="N24">
-        <v>0.859502</v>
+        <v>1.110373</v>
       </c>
       <c r="O24">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579453</v>
       </c>
       <c r="P24">
-        <v>0.04358688773560129</v>
+        <v>0.05306856712579454</v>
       </c>
       <c r="Q24">
-        <v>1.941706029711778</v>
+        <v>0.6901453057876666</v>
       </c>
       <c r="R24">
-        <v>17.475354267406</v>
+        <v>6.211307752089</v>
       </c>
       <c r="S24">
-        <v>0.004508706918504772</v>
+        <v>0.002686357004721217</v>
       </c>
       <c r="T24">
-        <v>0.004508706918504772</v>
+        <v>0.002686357004721218</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H25">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5409346666666667</v>
+        <v>0.775099</v>
       </c>
       <c r="N25">
-        <v>1.622804</v>
+        <v>2.325297</v>
       </c>
       <c r="O25">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="P25">
-        <v>0.08229530095902593</v>
+        <v>0.1111339882471103</v>
       </c>
       <c r="Q25">
-        <v>3.666086072912444</v>
+        <v>1.445273623469</v>
       </c>
       <c r="R25">
-        <v>32.99477465621199</v>
+        <v>13.007462611221</v>
       </c>
       <c r="S25">
-        <v>0.008512775563264793</v>
+        <v>0.005625657219697554</v>
       </c>
       <c r="T25">
-        <v>0.008512775563264794</v>
+        <v>0.005625657219697555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H26">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4218766666666667</v>
+        <v>0.7734500000000001</v>
       </c>
       <c r="N26">
-        <v>1.26563</v>
+        <v>2.32035</v>
       </c>
       <c r="O26">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="P26">
-        <v>0.0641823669110823</v>
+        <v>0.1108975540024274</v>
       </c>
       <c r="Q26">
-        <v>2.859192186154444</v>
+        <v>1.44219884695</v>
       </c>
       <c r="R26">
-        <v>25.73272967539</v>
+        <v>12.97978962255</v>
       </c>
       <c r="S26">
-        <v>0.006639140731804224</v>
+        <v>0.005613688801785414</v>
       </c>
       <c r="T26">
-        <v>0.006639140731804225</v>
+        <v>0.005613688801785416</v>
       </c>
     </row>
   </sheetData>
